--- a/biology/Zoologie/Effigia/Effigia.xlsx
+++ b/biology/Zoologie/Effigia/Effigia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Effigia okeeffeae
 Effigia est un genre éteint de « reptiles » archosauriens de la famille des Shuvosauridae.
@@ -514,7 +526,9 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fossile a été redécouvert en janvier 2006 par l'étudiant diplômé Sterling Nesbitt (en) à l'American Museum of Natural History. 
 Nesbitt ouvrait des vestes de blocs afin de trouver de nouveaux spécimens de Coelophysis. 
@@ -547,7 +561,9 @@
           <t>Convergence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Effigia est remarquable pour sa similitude remarquable avec les dinosaures ornithomimidés. 
 Nesbitt, en 2007, a montré que Effigia était très similaire à Shuvosaurus, et est définitivement membre du groupe des crurotarsiens (dans la lignée des crocodiliens modernes ), et que sa similitude avec les ornithomimidés représente un cas d'évolution convergente « extrême ». 
@@ -581,7 +597,9 @@
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans un épisode du Colbert Report du 30 janvier 2006 , Stephen Colbert a ironisé sur le fossile comme réfutant les «Darwinlutionists» («qui essaient de prétendre que chaque sorte de créature a évolué à partir de singes»). Colbert croit aussi que le fossile ne devrait pas avoir été nommé d'après Georgia O'Keeffe, dont les peintures "effraient l'enfer [de lui]", et devrait plutôt avoir été nommé d'après Edwin H. Colbert (voir la liste des épisodes du Colbert Report ) .
 Dans le film 3-D IMAX 2007, Dinosaurs Alive!, Nesbitt explique comment il a découvert Effigia. 
